--- a/PFOA inhalation Rat/Data/Dzierlenga_tissue_male.xlsx
+++ b/PFOA inhalation Rat/Data/Dzierlenga_tissue_male.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PBK_Grouping\PFOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5DA086-3F74-4FE0-94B2-3B5EA1E85C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBB05F-D13F-4B43-B39C-0F949C88F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serum_male" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
-  <si>
-    <t>Dose</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Tissue</t>
   </si>
@@ -31,9 +41,6 @@
     <t>Liver</t>
   </si>
   <si>
-    <t>Kidneys</t>
-  </si>
-  <si>
     <t>Brain</t>
   </si>
   <si>
@@ -41,13 +48,47 @@
   </si>
   <si>
     <t>Mass_microM</t>
+  </si>
+  <si>
+    <t>Dose_mg_per_kg</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>VBrT  (kg=L)</t>
+  </si>
+  <si>
+    <t>VKT  (kg=L)</t>
+  </si>
+  <si>
+    <t>VLT (kg=L)</t>
+  </si>
+  <si>
+    <t>BW (kg)</t>
+  </si>
+  <si>
+    <t>MW (g/mol)</t>
+  </si>
+  <si>
+    <t>Concentration_microg_per_g_organ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +221,23 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,52 +582,66 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
-    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,7 +697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -731,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,265 +953,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>414.07</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="2">
         <v>113.60399030000001</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6">
+        <f>C2*K$1/1000</f>
+        <v>47.040004263521006</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>8.70165E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>138.01989449999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H18" si="0">C3*K$1/1000</f>
+        <v>57.149897715614998</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1.29575E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150.60610109999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>62.361468282476991</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>1.423934E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>151.6205325</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>62.781513892275001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>192</v>
+      </c>
+      <c r="C6" s="2">
+        <v>117.4818686</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>48.645717331201993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>528</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45.592365780000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>18.878430898524599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>864</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.66958451</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8320248580556999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>88.617984000000007</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>36.694048634880005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>71.968567300000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>29.800024661910999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>71.008764020000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>29.402598917761399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>192</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44.38439666</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>18.378247125006201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>528</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.617920270000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6387722461989007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>864</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.930697729</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79944400864703002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>138.01989449999999</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C15" s="2">
+        <v>2.4094848409999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99769538811286984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>150.60610109999999</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C16" s="2">
+        <v>2.9273341770000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2121212626703901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B17" s="1">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>151.6205325</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C17" s="2">
+        <v>2.6826957949999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.11082384783565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B18" s="1">
         <v>192</v>
       </c>
-      <c r="B6">
-        <v>117.4818686</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>528</v>
-      </c>
-      <c r="B7">
-        <v>45.592365780000002</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>864</v>
-      </c>
-      <c r="B8">
-        <v>11.66958451</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>88.617984000000007</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>71.968567300000004</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>71.008764020000001</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>192</v>
-      </c>
-      <c r="B12">
-        <v>44.38439666</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>528</v>
-      </c>
-      <c r="B13">
-        <v>13.617920270000001</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>864</v>
-      </c>
-      <c r="B14">
-        <v>1.930697729</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>2.4094848409999998</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>2.9273341770000001</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>2.6826957949999999</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>192</v>
-      </c>
-      <c r="B18">
+      <c r="C18" s="2">
         <v>1.2992796129999999</v>
       </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53799270935490995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
